--- a/Thesis Work/Simulation/LAB measurement/S parameters/Diff mode/diff_filter.xlsx
+++ b/Thesis Work/Simulation/LAB measurement/S parameters/Diff mode/diff_filter.xlsx
@@ -206,15 +206,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diff_filter3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diff_filter2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diff_filter2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diff_filter1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diff_filter1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diff_filter3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23813,7 +23813,7 @@
   <dimension ref="A1:I802"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
